--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_2_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_2_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.56000000000009</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005367682111487859</v>
+        <v>7.36321178207433e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00223945691892239</v>
+        <v>4.086912509410851e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.127520779991095</v>
+        <v>5.376749367832567</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.3978425634506353, 6.857198996531555]</t>
+          <t>[2.814818106198742, 7.9386806294663925]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.003124884755812962</v>
+        <v>4.453222694689174e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003124884755812962</v>
+        <v>4.453222694689174e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.169842309444848</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8868424345884636, -0.4528421843012316]</t>
+          <t>[-2.0126319302276956, -0.8553685703467702]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001442265261429876</v>
+        <v>1.564222108507707e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002884530522859752</v>
+        <v>3.128444217015414e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>13.10288534305346</v>
+        <v>13.94647844191801</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.640041819488061, 14.565728866618862]</t>
+          <t>[12.43516608906344, 15.457790794772581]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.200360360360374</v>
+        <v>5.110030030030043</v>
       </c>
       <c r="X2" t="n">
-        <v>1.625945945945952</v>
+        <v>3.048088088088094</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774774774774797</v>
+        <v>7.171971971971992</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.21000000000019</v>
+        <v>23.04000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.940825886172838e-05</v>
+        <v>1.032300174896861e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006861011662183626</v>
+        <v>2.097352183913913e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.442579328050009</v>
+        <v>6.356695094409433</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.2610697915663582, 8.62408886453366]</t>
+          <t>[3.6158718506458154, 9.097518338173051]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0008544302328714615</v>
+        <v>7.124734296093393e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001708860465742923</v>
+        <v>1.424946859218679e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7484474990534249</v>
+        <v>0.08176317216550011</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.1949737182408091, 1.3019212798660407]</t>
+          <t>[-0.4465527095192705, 0.6100790538502707]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.008190342948511509</v>
+        <v>0.7609872586610922</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008190342948511509</v>
+        <v>0.7609872586610922</v>
       </c>
       <c r="S3" t="n">
-        <v>12.52243261742923</v>
+        <v>12.67954245978301</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.851934906304162, 14.192930328554294]</t>
+          <t>[11.015562294678187, 14.343522624887825]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.44524524524541</v>
+        <v>22.74018018018034</v>
       </c>
       <c r="X3" t="n">
-        <v>18.40072072072087</v>
+        <v>20.80288288288303</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.48976976976995</v>
+        <v>24.67747747747766</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_2_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_2_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.39000000000006</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.36321178207433e-06</v>
+        <v>3.007199302651475e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>4.086912509410851e-05</v>
+        <v>0.0007053054728279942</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.376749367832567</v>
+        <v>5.235399150321363</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.814818106198742, 7.9386806294663925]</t>
+          <t>[2.396935167760919, 8.073863132881808]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.453222694689174e-05</v>
+        <v>0.0003233038287824286</v>
       </c>
       <c r="N2" t="n">
-        <v>4.453222694689174e-05</v>
+        <v>0.0006466076575648572</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.25789495639231</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.0126319302276956, -0.8553685703467702]</t>
+          <t>[-1.8491055858966954, -0.6666843268879239]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.564222108507707e-06</v>
+        <v>3.506116421858607e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>3.128444217015414e-06</v>
+        <v>7.012232843717214e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>13.94647844191801</v>
+        <v>13.41935911777357</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.43516608906344, 15.457790794772581]</t>
+          <t>[11.842349370205072, 14.996368865342069]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.110030030030043</v>
+        <v>4.460460460460471</v>
       </c>
       <c r="X2" t="n">
-        <v>3.048088088088094</v>
+        <v>2.36404404404405</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.171971971971992</v>
+        <v>6.556876876876892</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.04000000000016</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.032300174896861e-06</v>
+        <v>0.000240826785364634</v>
       </c>
       <c r="H3" t="n">
-        <v>2.097352183913913e-05</v>
+        <v>0.001637903668133584</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.356695094409433</v>
+        <v>4.782525668136813</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.6158718506458154, 9.097518338173051]</t>
+          <t>[1.63127700525553, 7.933774331018096]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.124734296093393e-06</v>
+        <v>0.003041638917269829</v>
       </c>
       <c r="N3" t="n">
-        <v>1.424946859218679e-05</v>
+        <v>0.003041638917269829</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08176317216550011</v>
+        <v>0.4717106086471148</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.4465527095192705, 0.6100790538502707]</t>
+          <t>[-0.20755266780473391, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.7609872586610922</v>
+        <v>0.1728447819181709</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7609872586610922</v>
+        <v>0.1728447819181709</v>
       </c>
       <c r="S3" t="n">
-        <v>12.67954245978301</v>
+        <v>12.81853407089357</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.015562294678187, 14.343522624887825]</t>
+          <t>[11.19375849431487, 14.443309647472269]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.74018018018034</v>
+        <v>21.49525525525544</v>
       </c>
       <c r="X3" t="n">
-        <v>20.80288288288303</v>
+        <v>18.98282282282298</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.67747747747766</v>
+        <v>24.0076876876879</v>
       </c>
     </row>
   </sheetData>
